--- a/biology/Médecine/Crosse_de_l'aorte/Crosse_de_l'aorte.xlsx
+++ b/biology/Médecine/Crosse_de_l'aorte/Crosse_de_l'aorte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crosse_de_l%27aorte</t>
+          <t>Crosse_de_l'aorte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La crosse de l'aorte ou crosse aortique ou arc aortique (parfois aorte transverse ou aorte horizontale) est la deuxième portion de l'aorte thoracique : elle fait suite à l'aorte ascendante et se prolonge par l'aorte descendante, au niveau de la 4e vertèbre thoracique (T4).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Crosse_de_l%27aorte</t>
+          <t>Crosse_de_l'aorte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Située dans le médiastin antérieur, elle commence au niveau du bord supérieur de la deuxième articulation sterno-costale droite. Elle tourne pour se diriger d'abord vers le haut, l'arrière et la gauche en avant de la trachée; elle se dirige ensuite vers l'arrière en passant sur le côté gauche de la trachée et finit par descendre sur le bord gauche de cette dernière puis du bord gauche des vertèbres jusqu'au niveau du corps de la quatrième vertèbre thoracique, où elle se continue par l'aorte descendante.
 Elle forme ainsi deux courbes : une convexe vers le haut (pour contourner la racine du poumon gauche), l'autre convexe en avant et à gauche (pour contourner la trachée et l'œsophage). Son bord supérieur se situe  habituellement à environ 2,5 cm en dessous du bord supérieur du manubrium sternal.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Crosse_de_l%27aorte</t>
+          <t>Crosse_de_l'aorte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'embryologie humaine, la crosse aortique se forme à partir de la branche aortique du 6e arc pharyngé gauche. La branche droite disparaît par la suite. Cette asymétrie est liée au débit cardiaque, qui éjecte le sang à forte pression par son ventricule gauche en développement, alors qu'à droite le débit est faible voir nul, entrainant une régression. À droite, le débit nul est lié à une rotation de la voie efférente du cœur par le facteur morphogénique PITX2 impliqué dans l'asymétrie droite-gauche.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Crosse_de_l%27aorte</t>
+          <t>Crosse_de_l'aorte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Structures connexes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le ligament artériel relie le début de l'artère pulmonaire gauche à la crosse aortique. Dans la circulation fœtale (avant la naissance), le sang s'oxygène au niveau du placenta et la vascularisation pulmonaire fait partie de la grande circulation. Le sang veineux passe de l'artère pulmonaire dans l'aorte par le canal artériel. À la naissance ce canal se ferme et devient le ligament artériel.
 Le bouton aortique est l'ombre que fait la crosse aortique sur une radiographie du thorax de face.
